--- a/biology/Zoologie/Eucharitidae/Eucharitidae.xlsx
+++ b/biology/Zoologie/Eucharitidae/Eucharitidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eucharitidae sont une famille d'insectes entomophages parasitoïdes exclusifs de fourmis. Cette famille d'hyménoptères relève de la super-famille des Chalcidoidea.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ce sont des insectes d'une taille de 2 à 5,4 mm.
 Prepectus plat et fusionné au pronotum,
@@ -545,15 +559,15 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Eucharitidae se répartissent en 3 sous-familles, 48 genres pour 389 espèces décrites.
 Les sous-familles sont : 
 Akapalinae Boucek, 1988  (1 genre, 2 espèces)
 Eucharitinae Walker, 1846  (43 genres, 318 espèces)
 Oraseminae Burks, 1979  (4 genres, 69 espèces)
-Liste des genres
-Cette liste est établie d'après Noyes, 2001. Heraty (2003) a modifié cette taxonomie, non reprise dans cette liste.
 </t>
         </is>
       </c>
@@ -579,10 +593,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste est établie d'après Noyes, 2001. Heraty (2003) a modifié cette taxonomie, non reprise dans cette liste.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Eucharitidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eucharitidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ce sont tous des parasitoïdes des stades préimaginaux de fourmis.
 Eucharis adscendens sous sa forme adulte, émerge en abondance en été des nids de Formica rufa, la fourmi rousse des bois qu'elle parasite.</t>
